--- a/utils/rebalance_tools/blog_posts/April_2019.xlsx
+++ b/utils/rebalance_tools/blog_posts/April_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoin\Desktop\Mike\Bletch\bcindex\utils\rebalance_tools\blog_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5514D02C-F049-470C-9B5E-1BB0D263FB15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C759EC-57C1-4EB9-A8CA-A019B718E9C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="10680" windowHeight="13545" tabRatio="889" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="17475" windowHeight="13545" tabRatio="889" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sharpe" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="67">
   <si>
     <t>ten</t>
   </si>
@@ -213,34 +213,31 @@
     <t>MONA</t>
   </si>
   <si>
-    <t>BAT RVN</t>
-  </si>
-  <si>
-    <t>BTG VET</t>
-  </si>
-  <si>
-    <t>BTG MCO THETA WAX</t>
-  </si>
-  <si>
-    <t>BAT DGD HC RVN</t>
-  </si>
-  <si>
     <t>HC</t>
-  </si>
-  <si>
-    <t>MCO WAX</t>
-  </si>
-  <si>
-    <t>DGD VET</t>
-  </si>
-  <si>
-    <t>MCO THETA WAX</t>
   </si>
   <si>
     <t>DGD</t>
   </si>
   <si>
-    <t>DGD HC VET</t>
+    <t>BTG</t>
+  </si>
+  <si>
+    <t>RVN</t>
+  </si>
+  <si>
+    <t>DGD HC</t>
+  </si>
+  <si>
+    <t>MCO THETA</t>
+  </si>
+  <si>
+    <t>BTG MCO THETA</t>
+  </si>
+  <si>
+    <t>DGD HC RVN</t>
+  </si>
+  <si>
+    <t>MCO</t>
   </si>
 </sst>
 </file>
@@ -5583,7 +5580,7 @@
   <dimension ref="A1:Z72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6057,10 +6054,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="65">
         <v>2.0501913273642501E-3</v>
@@ -6081,16 +6078,16 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="27.75" thickBot="1">
+    <row r="15" spans="1:26" ht="15.75" thickBot="1">
       <c r="A15" s="75"/>
       <c r="B15" s="11">
         <v>40</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E15" s="53">
         <v>6.4691178109698197E-2</v>
@@ -6117,10 +6114,10 @@
         <v>32</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E16" s="65">
         <v>2.31639288375575E-3</v>
@@ -6173,10 +6170,10 @@
         <v>36</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E17" s="53">
         <v>7.9060855318075797E-4</v>
@@ -6234,7 +6231,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E18" s="65">
         <v>5.3521221759040302E-4</v>
@@ -6327,10 +6324,10 @@
         <v>42</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E20" s="73">
         <v>8.0108322935994E-2</v>
